--- a/biology/Botanique/Curculigo_scorzonerifolia/Curculigo_scorzonerifolia.xlsx
+++ b/biology/Botanique/Curculigo_scorzonerifolia/Curculigo_scorzonerifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculigo scorzonerifolia est une espèce herbacée sud-américaine appartenant à la famille des Hypoxidaceae.
-Elle est connue en Guyane sous les noms de Hya-Hya (Créole)[2], ya'ɨlala poã (Wayãpi - NB : ce nom est partagé avec Caladium bicolor)[3].
+Elle est connue en Guyane sous les noms de Hya-Hya (Créole), ya'ɨlala poã (Wayãpi - NB : ce nom est partagé avec Caladium bicolor).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curculigo scorzonerifolia est une petite plante herbacée, rhizomateuse, touffue, et d'une taille généralement inférieure à 30 cm de hauteur[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curculigo scorzonerifolia est une petite plante herbacée, rhizomateuse, touffue, et d'une taille généralement inférieure à 30 cm de hauteur. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Curculigo scorzonerifolia depuis le Mexique jusqu'au sud du Brésil en passant par l'Amérique centrale et les Antilles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Curculigo scorzonerifolia depuis le Mexique jusqu'au sud du Brésil en passant par l'Amérique centrale et les Antilles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curculigo scorzonerifolia pousse dans les savanes depuis le niveau de la mer jusqu'à 100-500 m d'altitude[4]. En Guyane, cette espèce rudérale est souvent entretenue autour des habitations[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curculigo scorzonerifolia pousse dans les savanes depuis le niveau de la mer jusqu'à 100-500 m d'altitude. En Guyane, cette espèce rudérale est souvent entretenue autour des habitations. 
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curculigo scorzonerifolia est considéré comme une plante magique chez les Wayãpi, utilisée par les mères comme protection suprême contre toutes les violations d'interdits de chasse par le père pendant les deux premières années de la vie d'un enfant[3].
-Curculigo scorzonerifolia aurait des propriétés emménagogues (fleurs), et antispasmodiques (feuilles)[5].
-Le rhizome possède des propriétés fertilisantes d'après les Yawalapiti du haut Xingu (Brésil)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curculigo scorzonerifolia est considéré comme une plante magique chez les Wayãpi, utilisée par les mères comme protection suprême contre toutes les violations d'interdits de chasse par le père pendant les deux premières années de la vie d'un enfant.
+Curculigo scorzonerifolia aurait des propriétés emménagogues (fleurs), et antispasmodiques (feuilles).
+Le rhizome possède des propriétés fertilisantes d'après les Yawalapiti du haut Xingu (Brésil).
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Hypoxis decumbens (synonyme de Curculigo scorzonerifolia)[7] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Hypoxis decumbens (synonyme de Curculigo scorzonerifolia) : 
 « HYPOXIS (decumbens) piloſa, capſulis clavatis. Lin. Amæn. 5. p. 396. Spec. 439. 
 Crocus foliis, &amp; radice ſcorzoneræ. Plum. Cat.5 .
 Yethyllis foliis enſiformibus, ancipitibus, nervoſis. Burm. Amer. p. 99. tab. 108. f. 2. »
